--- a/运营数据/基础信息/基础信息.xlsx
+++ b/运营数据/基础信息/基础信息.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixingongsi/Desktop/运营数据/基础信息/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixingongsi/Desktop/PYCarData/运营数据/基础信息/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1120" windowWidth="24960" windowHeight="13980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="640" yWindow="1120" windowWidth="24960" windowHeight="13980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="243">
   <si>
     <t>城市</t>
   </si>
@@ -289,9 +289,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>长沙</t>
-  </si>
-  <si>
     <t>广汽本田广本一店</t>
   </si>
   <si>
@@ -415,9 +412,6 @@
     <t>苏州九和园区店</t>
   </si>
   <si>
-    <t>西安</t>
-  </si>
-  <si>
     <t>广汽乘用车杭州工厂店</t>
   </si>
   <si>
@@ -427,9 +421,6 @@
     <t>增城亿升店</t>
   </si>
   <si>
-    <t>太原</t>
-  </si>
-  <si>
     <t>广汽丰田兆方店</t>
   </si>
   <si>
@@ -439,9 +430,6 @@
     <t>花都溢桂店</t>
   </si>
   <si>
-    <t>南昌</t>
-  </si>
-  <si>
     <t>总店B1组</t>
   </si>
   <si>
@@ -454,9 +442,6 @@
     <t>广汽本田长力店</t>
   </si>
   <si>
-    <t>合肥</t>
-  </si>
-  <si>
     <t>总店B2组</t>
   </si>
   <si>
@@ -538,9 +523,6 @@
     <t>广汽丰田千骅萧山店</t>
   </si>
   <si>
-    <t>青岛</t>
-  </si>
-  <si>
     <t>北部</t>
   </si>
   <si>
@@ -610,9 +592,6 @@
     <t>广汽丰田南京长益大厂店</t>
   </si>
   <si>
-    <t>烟台</t>
-  </si>
-  <si>
     <t>广新信宇店</t>
   </si>
   <si>
@@ -638,9 +617,6 @@
   </si>
   <si>
     <t>温州浙通机场路店</t>
-  </si>
-  <si>
-    <t>临沂</t>
   </si>
   <si>
     <t>广新喜龙店</t>
@@ -771,6 +747,82 @@
     <t>陈彦成</t>
     <rPh sb="0" eb="1">
       <t>chen yan cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥</t>
+    <rPh sb="0" eb="1">
+      <t>he fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖州</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌</t>
+    <rPh sb="0" eb="1">
+      <t>nan c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛</t>
+    <rPh sb="0" eb="1">
+      <t>q dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟台</t>
+    <rPh sb="0" eb="1">
+      <t>yan tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临沂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙</t>
+    <rPh sb="0" eb="1">
+      <t>chang s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安</t>
+    <rPh sb="0" eb="1">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太原</t>
+    <rPh sb="0" eb="1">
+      <t>tai yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛瑞合市北店</t>
+  </si>
+  <si>
+    <t>青岛伟丰靖城路店</t>
+  </si>
+  <si>
+    <t>青岛瑞铂开发区店</t>
+  </si>
+  <si>
+    <t>青岛</t>
+    <rPh sb="0" eb="1">
+      <t>q d</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -898,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -923,6 +975,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1207,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView topLeftCell="H32" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45:P46"/>
+    <sheetView topLeftCell="J18" workbookViewId="0">
+      <selection activeCell="S70" sqref="S70:S72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1258,18 +1313,18 @@
       <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="R1" s="9" t="s">
+      <c r="P1" s="11"/>
+      <c r="R1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="U1" s="9" t="s">
+      <c r="S1" s="11"/>
+      <c r="U1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="11"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1312,7 +1367,7 @@
       <c r="U2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1357,7 +1412,7 @@
       <c r="U3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1402,7 +1457,7 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1447,7 +1502,7 @@
       <c r="U5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1492,7 +1547,7 @@
       <c r="U6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1537,7 +1592,7 @@
       <c r="U7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1582,7 +1637,7 @@
       <c r="U8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1627,7 +1682,7 @@
       <c r="U9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1672,7 +1727,7 @@
       <c r="U10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1717,7 +1772,7 @@
       <c r="U11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1760,10 +1815,10 @@
         <v>18</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>74</v>
+        <v>230</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
@@ -1799,10 +1854,10 @@
         <v>18</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>74</v>
+        <v>231</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
@@ -1838,9 +1893,9 @@
         <v>19</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1877,9 +1932,9 @@
         <v>18</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V15" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1891,34 +1946,34 @@
         <v>46</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="U16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V16" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1930,27 +1985,27 @@
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="U17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="V17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="V17" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1962,16 +2017,16 @@
         <v>35</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>14</v>
@@ -1980,15 +2035,15 @@
         <v>17</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2000,16 +2055,16 @@
         <v>51</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>15</v>
@@ -2018,15 +2073,15 @@
         <v>31</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="V19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V19" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2038,16 +2093,16 @@
         <v>60</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>32</v>
@@ -2056,15 +2111,15 @@
         <v>31</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V20" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2076,16 +2131,16 @@
         <v>44</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>29</v>
@@ -2094,15 +2149,15 @@
         <v>31</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="V21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V21" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2114,16 +2169,16 @@
         <v>67</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>35</v>
@@ -2132,15 +2187,15 @@
         <v>31</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="V22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V22" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2149,19 +2204,19 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O23" s="5" t="s">
         <v>46</v>
@@ -2170,16 +2225,16 @@
         <v>31</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -2187,16 +2242,16 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>58</v>
@@ -2214,10 +2269,10 @@
         <v>18</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -2228,16 +2283,16 @@
         <v>73</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>78</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>51</v>
@@ -2252,10 +2307,10 @@
         <v>18</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -2266,16 +2321,16 @@
         <v>14</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>82</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O26" s="5" t="s">
         <v>60</v>
@@ -2284,16 +2339,16 @@
         <v>31</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -2301,19 +2356,19 @@
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>67</v>
@@ -2322,16 +2377,16 @@
         <v>66</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>122</v>
+        <v>233</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -2339,19 +2394,19 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>73</v>
@@ -2360,16 +2415,16 @@
         <v>17</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>122</v>
+        <v>234</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -2377,19 +2432,19 @@
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>78</v>
@@ -2398,16 +2453,16 @@
         <v>66</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>147</v>
+        <v>236</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -2415,19 +2470,19 @@
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>80</v>
@@ -2442,10 +2497,10 @@
         <v>11</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>147</v>
+        <v>235</v>
+      </c>
+      <c r="V30" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -2453,22 +2508,22 @@
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>31</v>
@@ -2480,10 +2535,10 @@
         <v>11</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -2491,22 +2546,22 @@
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>31</v>
@@ -2518,10 +2573,10 @@
         <v>11</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="V32" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -2529,19 +2584,19 @@
         <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>80</v>
@@ -2556,10 +2611,10 @@
         <v>11</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="V33" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -2567,19 +2622,19 @@
         <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>76</v>
@@ -2594,10 +2649,10 @@
         <v>11</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -2605,22 +2660,22 @@
         <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>31</v>
@@ -2632,10 +2687,10 @@
         <v>11</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -2646,19 +2701,19 @@
         <v>44</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>31</v>
@@ -2670,10 +2725,10 @@
         <v>11</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
+      </c>
+      <c r="V36" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -2684,19 +2739,19 @@
         <v>55</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>86</v>
@@ -2708,10 +2763,10 @@
         <v>11</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>171</v>
+        <v>237</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -2728,13 +2783,13 @@
         <v>58</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>86</v>
@@ -2746,10 +2801,10 @@
         <v>11</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
@@ -2757,7 +2812,7 @@
         <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>27</v>
@@ -2766,13 +2821,13 @@
         <v>27</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>86</v>
@@ -2784,10 +2839,10 @@
         <v>11</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.15">
@@ -2795,37 +2850,37 @@
         <v>18</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>86</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
@@ -2833,37 +2888,37 @@
         <v>18</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.15">
@@ -2871,37 +2926,37 @@
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>86</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
@@ -2909,37 +2964,37 @@
         <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
@@ -2947,37 +3002,37 @@
         <v>18</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>31</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
@@ -2985,51 +3040,57 @@
         <v>18</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>31</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="U45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>81</v>
@@ -3038,7 +3099,7 @@
         <v>31</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>26</v>
@@ -3052,19 +3113,19 @@
         <v>80</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>26</v>
@@ -3078,19 +3139,19 @@
         <v>76</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>26</v>
@@ -3101,22 +3162,22 @@
         <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>19</v>
@@ -3127,22 +3188,22 @@
         <v>18</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>19</v>
@@ -3150,19 +3211,19 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I51" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>19</v>
@@ -3170,19 +3231,19 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I52" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>19</v>
@@ -3190,19 +3251,19 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I53" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>19</v>
@@ -3210,19 +3271,19 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I54" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>19</v>
@@ -3230,13 +3291,19 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I55" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>33</v>
@@ -3244,13 +3311,19 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I56" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>33</v>
@@ -3258,13 +3331,19 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I57" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>33</v>
@@ -3272,13 +3351,13 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I58" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="S58" s="1" t="s">
         <v>41</v>
@@ -3286,13 +3365,13 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I59" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>41</v>
@@ -3300,13 +3379,13 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I60" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>41</v>
@@ -3314,13 +3393,13 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I61" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>41</v>
@@ -3328,13 +3407,13 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I62" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>41</v>
@@ -3342,13 +3421,13 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I63" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>41</v>
@@ -3356,94 +3435,136 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I64" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I65" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I66" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I67" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I68" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I69" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I70" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="I71" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="I72" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="I73" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3461,8 +3582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3475,19 +3596,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3790,7 +3911,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP($A16,工作表1!$I$2:$J$1000,2,0)</f>
@@ -3811,7 +3932,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP($A17,工作表1!$I$2:$J$1000,2,0)</f>
@@ -3832,7 +3953,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP($A18,工作表1!$I$2:$J$1000,2,0)</f>
@@ -3853,7 +3974,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP($A19,工作表1!$I$2:$J$1000,2,0)</f>
@@ -3874,7 +3995,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP($A20,工作表1!$I$2:$J$1000,2,0)</f>
@@ -3895,7 +4016,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP($A21,工作表1!$I$2:$J$1000,2,0)</f>
@@ -3916,7 +4037,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP($A22,工作表1!$I$2:$J$1000,2,0)</f>
@@ -3937,7 +4058,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP($A23,工作表1!$I$2:$J$1000,2,0)</f>
@@ -3958,7 +4079,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP($A24,工作表1!$I$2:$J$1000,2,0)</f>
@@ -3979,7 +4100,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP($A25,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4000,7 +4121,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP($A26,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4015,12 +4136,12 @@
         <v>华东</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP($A27,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4041,7 +4162,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP($A28,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4062,7 +4183,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B29" t="str">
         <f>VLOOKUP($A29,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4083,7 +4204,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP($A30,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4104,7 +4225,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP($A31,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4125,7 +4246,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B32" t="str">
         <f>VLOOKUP($A32,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4146,7 +4267,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B33" t="str">
         <f>VLOOKUP($A33,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4167,7 +4288,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B34" t="str">
         <f>VLOOKUP($A34,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4188,7 +4309,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B35" t="str">
         <f>VLOOKUP($A35,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4209,7 +4330,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B36" t="str">
         <f>VLOOKUP($A36,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4230,7 +4351,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B37" t="str">
         <f>VLOOKUP($A37,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4266,7 +4387,7 @@
         <v>华南</v>
       </c>
       <c r="E38" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -4286,12 +4407,12 @@
         <v>华南</v>
       </c>
       <c r="E39" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B40" t="str">
         <f>VLOOKUP($A40,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4306,12 +4427,12 @@
         <v>华东</v>
       </c>
       <c r="E40" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B41" t="str">
         <f>VLOOKUP($A41,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4326,12 +4447,12 @@
         <v>华东</v>
       </c>
       <c r="E41" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B42" t="str">
         <f>VLOOKUP($A42,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4346,12 +4467,12 @@
         <v>华东</v>
       </c>
       <c r="E42" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B43" t="str">
         <f>VLOOKUP($A43,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4366,12 +4487,12 @@
         <v>华东</v>
       </c>
       <c r="E43" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B44" t="str">
         <f>VLOOKUP($A44,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4386,12 +4507,12 @@
         <v>华东</v>
       </c>
       <c r="E44" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B45" t="str">
         <f>VLOOKUP($A45,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4406,12 +4527,12 @@
         <v>华东</v>
       </c>
       <c r="E45" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B46" t="str">
         <f>VLOOKUP($A46,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4426,12 +4547,12 @@
         <v>华东</v>
       </c>
       <c r="E46" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B47" t="str">
         <f>VLOOKUP($A47,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4446,12 +4567,12 @@
         <v>华东</v>
       </c>
       <c r="E47" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B48" t="str">
         <f>VLOOKUP($A48,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4466,12 +4587,12 @@
         <v>华东</v>
       </c>
       <c r="E48" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B49" t="str">
         <f>VLOOKUP($A49,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4486,12 +4607,12 @@
         <v>华东</v>
       </c>
       <c r="E49" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B50" t="str">
         <f>VLOOKUP($A50,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4506,12 +4627,12 @@
         <v>华东</v>
       </c>
       <c r="E50" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP($A51,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4526,12 +4647,12 @@
         <v>华东</v>
       </c>
       <c r="E51" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B52" t="str">
         <f>VLOOKUP($A52,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4546,12 +4667,12 @@
         <v>华东</v>
       </c>
       <c r="E52" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B53" t="str">
         <f>VLOOKUP($A53,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4566,12 +4687,12 @@
         <v>华东</v>
       </c>
       <c r="E53" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B54" t="str">
         <f>VLOOKUP($A54,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4586,12 +4707,12 @@
         <v>华东</v>
       </c>
       <c r="E54" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" t="str">
         <f>VLOOKUP($A55,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4612,7 +4733,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B56" t="str">
         <f>VLOOKUP($A56,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4627,12 +4748,12 @@
         <v>华东</v>
       </c>
       <c r="E56" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B57" t="str">
         <f>VLOOKUP($A57,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4647,12 +4768,12 @@
         <v>华东</v>
       </c>
       <c r="E57" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B58" t="str">
         <f>VLOOKUP($A58,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4667,12 +4788,12 @@
         <v>华东</v>
       </c>
       <c r="E58" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B59" t="str">
         <f>VLOOKUP($A59,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4687,12 +4808,12 @@
         <v>华东</v>
       </c>
       <c r="E59" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B60" t="str">
         <f>VLOOKUP($A60,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4707,12 +4828,12 @@
         <v>华东</v>
       </c>
       <c r="E60" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B61" t="str">
         <f>VLOOKUP($A61,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4727,12 +4848,12 @@
         <v>华东</v>
       </c>
       <c r="E61" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B62" t="str">
         <f>VLOOKUP($A62,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4747,12 +4868,12 @@
         <v>华东</v>
       </c>
       <c r="E62" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B63" t="str">
         <f>VLOOKUP($A63,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4767,12 +4888,12 @@
         <v>华东</v>
       </c>
       <c r="E63" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B64" t="str">
         <f>VLOOKUP($A64,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4787,12 +4908,12 @@
         <v>华东</v>
       </c>
       <c r="E64" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B65" t="str">
         <f>VLOOKUP($A65,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4807,12 +4928,12 @@
         <v>西部</v>
       </c>
       <c r="E65" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B66" t="str">
         <f>VLOOKUP($A66,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4827,12 +4948,12 @@
         <v>西部</v>
       </c>
       <c r="E66" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B67" t="str">
         <f>VLOOKUP($A67,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4847,12 +4968,12 @@
         <v>西部</v>
       </c>
       <c r="E67" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B68" t="str">
         <f>VLOOKUP($A68,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4867,12 +4988,12 @@
         <v>西部</v>
       </c>
       <c r="E68" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B69" t="str">
         <f>VLOOKUP($A69,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4887,12 +5008,12 @@
         <v>西部</v>
       </c>
       <c r="E69" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B70" t="str">
         <f>VLOOKUP($A70,工作表1!$I$2:$J$1000,2,0)</f>
@@ -4907,7 +5028,67 @@
         <v>西部</v>
       </c>
       <c r="E70" t="s">
-        <v>233</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B71" t="str">
+        <f>VLOOKUP($A71,工作表1!$I$2:$J$1000,2,0)</f>
+        <v>青岛瑞合市北店</v>
+      </c>
+      <c r="C71" t="str">
+        <f>VLOOKUP(B71,工作表1!$R$2:$S$1000,2,0)</f>
+        <v>青岛</v>
+      </c>
+      <c r="D71" t="str">
+        <f>VLOOKUP(C71,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华中</v>
+      </c>
+      <c r="E71" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B72" t="str">
+        <f>VLOOKUP($A72,工作表1!$I$2:$J$1000,2,0)</f>
+        <v>青岛伟丰靖城路店</v>
+      </c>
+      <c r="C72" t="str">
+        <f>VLOOKUP(B72,工作表1!$R$2:$S$1000,2,0)</f>
+        <v>青岛</v>
+      </c>
+      <c r="D72" t="str">
+        <f>VLOOKUP(C72,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华中</v>
+      </c>
+      <c r="E72" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B73" t="str">
+        <f>VLOOKUP($A73,工作表1!$I$2:$J$1000,2,0)</f>
+        <v>青岛瑞铂开发区店</v>
+      </c>
+      <c r="C73" t="str">
+        <f>VLOOKUP(B73,工作表1!$R$2:$S$1000,2,0)</f>
+        <v>青岛</v>
+      </c>
+      <c r="D73" t="str">
+        <f>VLOOKUP(C73,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华中</v>
+      </c>
+      <c r="E73" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4927,8 +5108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4938,10 +5119,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5050,7 +5231,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>31</v>
@@ -5058,7 +5239,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
@@ -5074,7 +5255,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>31</v>

--- a/运营数据/基础信息/基础信息.xlsx
+++ b/运营数据/基础信息/基础信息.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="254">
   <si>
     <t>城市</t>
   </si>
@@ -823,6 +823,44 @@
     <t>青岛</t>
     <rPh sb="0" eb="1">
       <t>q d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙坤宝天心店</t>
+  </si>
+  <si>
+    <t>浏阳华运丰关口店</t>
+  </si>
+  <si>
+    <t>长沙华运丰四方店</t>
+  </si>
+  <si>
+    <t>长沙中升金星大道店</t>
+  </si>
+  <si>
+    <t>长沙长威中南店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广汽丰田长沙长威中南店</t>
+  </si>
+  <si>
+    <t>广汽丰田长沙坤宝天心店</t>
+  </si>
+  <si>
+    <t>广汽丰田浏阳华运丰关口店</t>
+  </si>
+  <si>
+    <t>广汽丰田长沙华运丰四方店</t>
+  </si>
+  <si>
+    <t>广汽丰田长沙中升金星大道店</t>
+  </si>
+  <si>
+    <t>长沙</t>
+    <rPh sb="0" eb="1">
+      <t>c sha</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3582,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5091,8 +5129,96 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>248</v>
+      </c>
+      <c r="B74" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" t="s">
+        <v>253</v>
+      </c>
+      <c r="D74" t="str">
+        <f>VLOOKUP(C74,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华中</v>
+      </c>
+      <c r="E74" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>249</v>
+      </c>
+      <c r="B75" t="s">
+        <v>243</v>
+      </c>
+      <c r="C75" t="s">
+        <v>253</v>
+      </c>
+      <c r="D75" t="str">
+        <f>VLOOKUP(C75,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华中</v>
+      </c>
+      <c r="E75" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>250</v>
+      </c>
+      <c r="B76" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" t="s">
+        <v>253</v>
+      </c>
+      <c r="D76" t="str">
+        <f>VLOOKUP(C76,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华中</v>
+      </c>
+      <c r="E76" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77" t="s">
+        <v>253</v>
+      </c>
+      <c r="D77" t="str">
+        <f>VLOOKUP(C77,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华中</v>
+      </c>
+      <c r="E77" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78" t="s">
+        <v>246</v>
+      </c>
+      <c r="C78" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" t="str">
+        <f>VLOOKUP(C78,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华中</v>
+      </c>
+      <c r="E78" t="s">
+        <v>225</v>
+      </c>
+    </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/运营数据/基础信息/基础信息.xlsx
+++ b/运营数据/基础信息/基础信息.xlsx
@@ -16,6 +16,9 @@
     <sheet name="基础信息" sheetId="2" r:id="rId2"/>
     <sheet name="业务员组别" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">基础信息!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="268">
   <si>
     <t>城市</t>
   </si>
@@ -864,12 +867,62 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>溢丰车城店</t>
+  </si>
+  <si>
+    <t>友宏桂城店</t>
+  </si>
+  <si>
+    <t>佛山</t>
+    <rPh sb="0" eb="1">
+      <t>f s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慈溪金港横河店</t>
+  </si>
+  <si>
+    <t>象山宁兴丹城店</t>
+  </si>
+  <si>
+    <t>广汽丰田宁波中升世纪店</t>
+  </si>
+  <si>
+    <t>广汽丰田舟山中升定海店</t>
+  </si>
+  <si>
+    <t>宁海中升广丰店</t>
+  </si>
+  <si>
+    <t>广汽丰田宁波金丰中兴店</t>
+  </si>
+  <si>
+    <t>宁波</t>
+    <rPh sb="0" eb="1">
+      <t>n bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中升大沥店</t>
+  </si>
+  <si>
+    <t>广物一环东店</t>
+  </si>
+  <si>
+    <t>金利丰南庄店</t>
+  </si>
+  <si>
+    <t>中元三水店</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -901,6 +954,11 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF555555"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="6">
@@ -988,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1023,6 +1081,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3618,10 +3677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4749,7 +4808,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B55" t="str">
@@ -5219,12 +5278,224 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" t="s">
+        <v>256</v>
+      </c>
+      <c r="D79" t="str">
+        <f>VLOOKUP(C79,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华南</v>
+      </c>
+      <c r="E79" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" t="str">
+        <f>VLOOKUP(C80,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华南</v>
+      </c>
+      <c r="E80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" t="s">
+        <v>263</v>
+      </c>
+      <c r="D81" t="str">
+        <f>VLOOKUP(C81,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华东</v>
+      </c>
+      <c r="E81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" t="str">
+        <f>VLOOKUP(C82,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华东</v>
+      </c>
+      <c r="E82" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" t="s">
+        <v>263</v>
+      </c>
+      <c r="D83" t="str">
+        <f>VLOOKUP(C83,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华东</v>
+      </c>
+      <c r="E83" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C84" t="s">
+        <v>263</v>
+      </c>
+      <c r="D84" t="str">
+        <f>VLOOKUP(C84,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华东</v>
+      </c>
+      <c r="E84" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" t="s">
+        <v>263</v>
+      </c>
+      <c r="D85" t="str">
+        <f>VLOOKUP(C85,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华东</v>
+      </c>
+      <c r="E85" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" t="s">
+        <v>263</v>
+      </c>
+      <c r="D86" t="str">
+        <f>VLOOKUP(C86,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华东</v>
+      </c>
+      <c r="E86" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" t="s">
+        <v>256</v>
+      </c>
+      <c r="D87" t="str">
+        <f>VLOOKUP(C87,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华南</v>
+      </c>
+      <c r="E87" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" t="s">
+        <v>256</v>
+      </c>
+      <c r="D88" t="str">
+        <f>VLOOKUP(C88,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华南</v>
+      </c>
+      <c r="E88" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89" t="str">
+        <f>VLOOKUP(C89,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华南</v>
+      </c>
+      <c r="E89" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" t="s">
+        <v>256</v>
+      </c>
+      <c r="D90" t="str">
+        <f>VLOOKUP(C90,工作表1!$U$2:$V$1000,2,0)</f>
+        <v>华南</v>
+      </c>
+      <c r="E90" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:K1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
